--- a/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="609">
   <si>
     <t>Property</t>
   </si>
@@ -636,7 +636,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
     <t>このリソースが一部として、あるいは手順の一つとして含まれるより大きなイベント。</t>
@@ -657,7 +657,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態【詳細参照】</t>
+    <t>結果の状態</t>
   </si>
   <si>
     <t>結果値の状態。</t>
@@ -694,9 +694,6 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>このObservationを分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationを分類するコード</t>
   </si>
   <si>
@@ -954,7 +951,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード【詳細参照】</t>
+    <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
     <t>検査の内容の説明。検査名称。</t>
@@ -1073,7 +1070,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
     <t>検体検査の対象となる患者。</t>
@@ -1104,7 +1101,7 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
     <t>患者当人ではなく、患者の胎児、親、ドナーなどの検査、観察の場合、その対象を示す。</t>
@@ -1124,7 +1121,7 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
     <t>この検査が行われるヘルスケアイベント。医療提供者と患者の接点。</t>
@@ -1160,7 +1157,7 @@
 PeriodTiming</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
+    <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
     <t>検体検査の場合は、検体採取日時。</t>
@@ -1193,7 +1190,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
     <t>この情報の発生日時。システム時刻であり、人が報告する時刻ではないことに注意。このリソースの発生時間と同じになる場合がある。</t>
@@ -1218,7 +1215,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
+    <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
     <t>検査値を確認した責任者。検査実施責任者情報。</t>
@@ -1347,7 +1344,7 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
     <t>検査結果値が欠落している理由。</t>
@@ -1421,7 +1418,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関するコメント【詳細参照】</t>
+    <t>このObservationに関するコメント</t>
   </si>
   <si>
     <t>検査、あるいは結果に関するコメント。フリーテキストの追加情報として使用可能。</t>
@@ -1575,7 +1572,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
+    <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
     <t>この検査に使用された検体（標本）。</t>
@@ -1603,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
     <t>検査装置、機器。</t>
@@ -1631,7 +1628,7 @@
 </t>
   </si>
   <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
   </si>
   <si>
     <t>推奨範囲として結果値を解釈するためのガイダンス。基準値。</t>
@@ -1810,7 +1807,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
     <t>グループ検査の場合、この検査に含まれる複数の検査結果項目を示す。</t>
@@ -1832,7 +1829,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
     <t>この検査値の発生元である関連リソース。例えば他のObservation を受けて、本検査値が発生した場合など。</t>
@@ -1847,7 +1844,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
   </si>
   <si>
     <t>一度のタイミングでの1回の検査で複数の結果を同時に得る場合にのみ使用される。例えば、血圧の収縮期、拡張期。新生児のApgarスコア。質問に対する複数の回答（飲んだアルコールの種類、など）。</t>
@@ -4876,13 +4873,13 @@
         <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4911,13 +4908,13 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
@@ -4951,10 +4948,10 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>41</v>
@@ -4962,10 +4959,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5080,10 +5077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5200,10 +5197,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5226,19 +5223,19 @@
         <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5287,7 +5284,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5308,10 +5305,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5322,10 +5319,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5351,16 +5348,16 @@
         <v>120</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5409,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5430,10 +5427,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5444,13 +5441,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>213</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>41</v>
@@ -5475,16 +5472,16 @@
         <v>142</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5513,7 +5510,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5555,10 +5552,10 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>41</v>
@@ -5566,10 +5563,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5684,10 +5681,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5804,10 +5801,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5830,19 +5827,19 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="O30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5891,7 +5888,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5912,10 +5909,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5926,10 +5923,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6044,10 +6041,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6164,10 +6161,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6193,65 +6190,65 @@
         <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -6272,10 +6269,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6286,10 +6283,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6315,13 +6312,13 @@
         <v>120</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6371,7 +6368,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6392,10 +6389,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6406,10 +6403,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6435,21 +6432,21 @@
         <v>72</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>41</v>
@@ -6491,7 +6488,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6512,10 +6509,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6526,10 +6523,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6555,14 +6552,14 @@
         <v>120</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6611,7 +6608,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6632,10 +6629,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6646,10 +6643,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6672,19 +6669,19 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6733,7 +6730,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6754,10 +6751,10 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6768,10 +6765,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6797,16 +6794,16 @@
         <v>120</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6855,7 +6852,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6876,10 +6873,10 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6890,14 +6887,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6919,16 +6916,16 @@
         <v>142</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6956,11 +6953,11 @@
         <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
       </c>
@@ -6977,7 +6974,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>52</v>
@@ -6992,30 +6989,30 @@
         <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7130,10 +7127,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7250,10 +7247,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7276,19 +7273,19 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="O42" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7337,7 +7334,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7358,10 +7355,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7372,10 +7369,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7490,10 +7487,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7610,10 +7607,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7639,16 +7636,16 @@
         <v>66</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="O45" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7697,7 +7694,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7718,10 +7715,10 @@
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7732,10 +7729,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7761,13 +7758,13 @@
         <v>120</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7817,7 +7814,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7838,10 +7835,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7852,10 +7849,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7881,16 +7878,16 @@
         <v>72</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="O47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7939,7 +7936,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7960,10 +7957,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7974,10 +7971,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8003,16 +8000,16 @@
         <v>120</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -8061,7 +8058,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -8082,10 +8079,10 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -8096,10 +8093,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8122,19 +8119,19 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="M49" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8183,7 +8180,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -8204,10 +8201,10 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8218,10 +8215,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8247,16 +8244,16 @@
         <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="O50" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8305,7 +8302,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8326,10 +8323,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8340,10 +8337,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8366,19 +8363,19 @@
         <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8427,7 +8424,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8442,19 +8439,19 @@
         <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>41</v>
@@ -8462,10 +8459,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8488,16 +8485,16 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8547,7 +8544,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8568,13 +8565,13 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>41</v>
@@ -8582,14 +8579,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8608,19 +8605,19 @@
         <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -8669,7 +8666,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8684,19 +8681,19 @@
         <v>64</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>41</v>
@@ -8704,14 +8701,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8730,19 +8727,19 @@
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8791,7 +8788,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8806,19 +8803,19 @@
         <v>64</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>41</v>
@@ -8826,10 +8823,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8852,16 +8849,16 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8911,7 +8908,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8932,13 +8929,13 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>41</v>
@@ -8946,10 +8943,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8972,19 +8969,19 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -9033,7 +9030,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -9048,19 +9045,19 @@
         <v>64</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>41</v>
@@ -9068,10 +9065,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9094,19 +9091,19 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -9143,26 +9140,26 @@
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>64</v>
@@ -9171,30 +9168,30 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>41</v>
@@ -9216,19 +9213,19 @@
         <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="O58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9277,7 +9274,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9286,7 +9283,7 @@
         <v>52</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>64</v>
@@ -9295,30 +9292,30 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>41</v>
@@ -9343,16 +9340,16 @@
         <v>142</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9401,7 +9398,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9410,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>64</v>
@@ -9419,30 +9416,30 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>41</v>
@@ -9467,16 +9464,16 @@
         <v>120</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9525,7 +9522,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9534,7 +9531,7 @@
         <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>64</v>
@@ -9543,27 +9540,27 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9589,16 +9586,16 @@
         <v>142</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9626,37 +9623,37 @@
         <v>147</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Z61" t="s" s="2">
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>64</v>
@@ -9671,7 +9668,7 @@
         <v>95</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9682,14 +9679,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9711,16 +9708,16 @@
         <v>142</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9748,11 +9745,11 @@
         <v>147</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
       </c>
@@ -9769,7 +9766,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9787,27 +9784,27 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9830,19 +9827,19 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9891,7 +9888,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9912,10 +9909,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9926,10 +9923,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10044,10 +10041,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10164,10 +10161,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10190,16 +10187,16 @@
         <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10249,7 +10246,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -10273,7 +10270,7 @@
         <v>95</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10284,10 +10281,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10310,13 +10307,13 @@
         <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10367,7 +10364,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10391,7 +10388,7 @@
         <v>95</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10402,10 +10399,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10428,16 +10425,16 @@
         <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10487,7 +10484,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>52</v>
@@ -10511,7 +10508,7 @@
         <v>95</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10522,10 +10519,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10551,13 +10548,13 @@
         <v>142</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10583,14 +10580,14 @@
         <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>41</v>
       </c>
@@ -10607,7 +10604,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10625,27 +10622,27 @@
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10671,16 +10668,16 @@
         <v>142</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10705,14 +10702,14 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
       </c>
@@ -10729,7 +10726,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10750,10 +10747,10 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10764,10 +10761,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10790,16 +10787,16 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10849,7 +10846,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10867,27 +10864,27 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10910,16 +10907,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10969,7 +10966,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10987,27 +10984,27 @@
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11030,19 +11027,19 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -11091,7 +11088,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -11103,19 +11100,19 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -11126,10 +11123,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11244,10 +11241,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11364,14 +11361,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11393,10 +11390,10 @@
         <v>98</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>101</v>
@@ -11451,7 +11448,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11486,10 +11483,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11512,16 +11509,16 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11571,7 +11568,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11580,7 +11577,7 @@
         <v>52</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>64</v>
@@ -11592,10 +11589,10 @@
         <v>41</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11606,10 +11603,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11632,16 +11629,16 @@
         <v>41</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="N78" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11691,7 +11688,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11700,7 +11697,7 @@
         <v>52</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>64</v>
@@ -11712,10 +11709,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11726,10 +11723,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11755,16 +11752,16 @@
         <v>142</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11792,11 +11789,11 @@
         <v>76</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>41</v>
       </c>
@@ -11813,7 +11810,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11831,13 +11828,13 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM79" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AN79" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11848,10 +11845,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11877,16 +11874,16 @@
         <v>142</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11911,14 +11908,14 @@
         <v>41</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11935,7 +11932,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11953,13 +11950,13 @@
         <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM80" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11970,10 +11967,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11996,19 +11993,19 @@
         <v>41</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>41</v>
@@ -12057,7 +12054,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -12081,7 +12078,7 @@
         <v>41</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -12092,10 +12089,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12121,13 +12118,13 @@
         <v>120</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12177,7 +12174,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12198,10 +12195,10 @@
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
@@ -12212,10 +12209,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12238,16 +12235,16 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12297,7 +12294,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12318,10 +12315,10 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
@@ -12332,10 +12329,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12358,16 +12355,16 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12417,7 +12414,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12438,10 +12435,10 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>41</v>
@@ -12452,10 +12449,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12478,19 +12475,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12539,7 +12536,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12560,10 +12557,10 @@
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>41</v>
@@ -12574,10 +12571,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12692,10 +12689,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12812,14 +12809,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12841,10 +12838,10 @@
         <v>98</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>101</v>
@@ -12899,7 +12896,7 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12934,10 +12931,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12963,16 +12960,16 @@
         <v>142</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="O89" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12997,14 +12994,14 @@
         <v>41</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>41</v>
       </c>
@@ -13021,7 +13018,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>52</v>
@@ -13039,16 +13036,16 @@
         <v>41</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>41</v>
@@ -13056,10 +13053,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13082,19 +13079,19 @@
         <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="O90" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>41</v>
@@ -13143,7 +13140,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13161,27 +13158,27 @@
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13207,16 +13204,16 @@
         <v>142</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="O91" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13244,37 +13241,37 @@
         <v>147</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>64</v>
@@ -13289,7 +13286,7 @@
         <v>95</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13300,14 +13297,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13329,16 +13326,16 @@
         <v>142</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>41</v>
@@ -13366,11 +13363,11 @@
         <v>147</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>41</v>
       </c>
@@ -13387,7 +13384,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13405,27 +13402,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13451,16 +13448,16 @@
         <v>42</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>41</v>
@@ -13509,7 +13506,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13530,10 +13527,10 @@
         <v>41</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-labresult.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
